--- a/Arquitectura de Computadores/Examen/Examen2/ExámenesViejos/Sol_Examen2.xlsx
+++ b/Arquitectura de Computadores/Examen/Examen2/ExámenesViejos/Sol_Examen2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecnube1-my.sharepoint.com/personal/lachavarria_itcr_ac_cr/Documents/Escuela de Ingeniería en Computadores/docente/computadores/2024/Semestre 1/cursos_míos/imparto/Arquitectura de Computadores 1/soluciones_exámenes/examen2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\II-semestre-2024\Arquitectura de Computadores\Examen\Examen2\ExámenesViejos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="545" documentId="13_ncr:1_{A6D70012-7000-4D81-82B3-66173A5E44A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95BA3B01-8913-4126-9E61-88EDE000F9F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FEEEEB-4CE8-4D28-8C90-2F6D44487D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F3F50F16-C613-4A8B-829E-CEFBEB920B7C}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{F3F50F16-C613-4A8B-829E-CEFBEB920B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="103">
   <si>
     <t>INST</t>
   </si>
@@ -135,27 +135,12 @@
     <t>ALU1</t>
   </si>
   <si>
-    <t>ALU2</t>
-  </si>
-  <si>
     <t>MULT1</t>
   </si>
   <si>
-    <t>MULT2</t>
-  </si>
-  <si>
-    <t>INT1</t>
-  </si>
-  <si>
-    <t>INT2</t>
-  </si>
-  <si>
     <t>Ready</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -210,12 +195,6 @@
     <t>ALU x 2 (3 ciclos), Mult x 2 (6 ciclos), INT x 2 (2 ciclos)</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>IS</t>
   </si>
   <si>
@@ -270,21 +249,6 @@
     <t>39</t>
   </si>
   <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
-    <t>7,11</t>
-  </si>
-  <si>
-    <t>9,10,12</t>
-  </si>
-  <si>
     <t>200ns</t>
   </si>
   <si>
@@ -385,6 +349,9 @@
   </si>
   <si>
     <t>RAW R5 y R8</t>
+  </si>
+  <si>
+    <t>LD/ST</t>
   </si>
 </sst>
 </file>
@@ -414,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -474,21 +441,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -816,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -824,47 +776,45 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,6 +888,55 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>408024</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2595F187-F600-39A6-0470-46E33D40056C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3787140" y="60960"/>
+          <a:ext cx="2534004" cy="962159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1285,423 +1284,423 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEAF6F4-E4A9-4E46-9A3A-B0CB00C3C2DA}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="J1" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="35">
+      <c r="C2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="33">
         <v>1</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="21">
         <v>2</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="36" t="s">
+      <c r="H2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="31"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="46">
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="44">
         <v>2</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="37" t="s">
+      <c r="D3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="35" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
+      <c r="J3" s="30"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="44">
         <v>3</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="38" t="s">
+      <c r="C4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="36" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
+      <c r="J4" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="44">
         <v>4</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="44">
+        <v>5</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="44">
+        <v>6</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="44">
+        <v>7</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="C8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="44">
         <v>8</v>
       </c>
-      <c r="F5" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="46">
-        <v>5</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17" t="s">
+      <c r="B9" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="33" t="s">
+      <c r="F9" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="44">
+        <v>9</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="46">
-        <v>6</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="46">
-        <v>7</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="46">
-        <v>8</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="46">
-        <v>9</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="37" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="35" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="46">
+      <c r="J10" s="31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="44">
         <v>10</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="38" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>69</v>
+      <c r="G11" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="46">
+        <v>98</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="44">
         <v>11</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="37" t="s">
+      <c r="C12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="35" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="45">
+        <v>12</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47">
-        <v>12</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1714,9 +1713,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AA80FE-2732-4D0F-B662-75976EB526CA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1725,408 +1726,241 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0846E6CA-819C-4FA8-9682-4C7034118E4D}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="E1" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>76</v>
-      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="10" t="s">
-        <v>76</v>
-      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="10" t="s">
-        <v>76</v>
-      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="10">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1">
-        <v>9</v>
-      </c>
-      <c r="H23" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="11">
-        <v>12</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2138,50 +1972,50 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2195,17 +2029,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2221,39 +2055,39 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2269,31 +2103,31 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2310,31 +2144,31 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
